--- a/GDD_Skill_Levels_descriptions.xlsx
+++ b/GDD_Skill_Levels_descriptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steve.newman/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richard.raybould/GDD-Evidence-Evaluator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E2679D8-143D-5942-BD5E-014D341630E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3594B3-880B-3D41-AF17-B183C52140F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18120" xr2:uid="{E3A2C896-5453-DA42-8F79-D0CA852F103D}"/>
+    <workbookView xWindow="4020" yWindow="1000" windowWidth="21360" windowHeight="17640" xr2:uid="{E3A2C896-5453-DA42-8F79-D0CA852F103D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="62">
   <si>
     <t>Capability</t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>Senior developer - management</t>
+  </si>
+  <si>
+    <t>Senior developer</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Junior Developer</t>
   </si>
 </sst>
 </file>
@@ -644,15 +653,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7AC9B1-ABB7-BD42-B8A5-87DDE96F229D}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124:D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -669,7 +679,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -683,7 +693,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -697,7 +707,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="372" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -711,7 +721,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -725,7 +735,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="404" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -739,7 +749,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -753,7 +763,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -767,7 +777,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="388" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -781,7 +791,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -795,7 +805,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -809,7 +819,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -823,7 +833,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -837,7 +847,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -851,7 +861,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="323" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -865,7 +875,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -879,7 +889,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -893,7 +903,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -907,7 +917,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -921,7 +931,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="404" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -935,7 +945,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -949,7 +959,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -963,7 +973,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -977,7 +987,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -991,7 +1001,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1005,7 +1015,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1019,7 +1029,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1033,7 +1043,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1047,7 +1057,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1061,7 +1071,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1075,7 +1085,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1089,7 +1099,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1103,7 +1113,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1117,7 +1127,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -1131,7 +1141,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -1145,7 +1155,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -1159,7 +1169,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1173,7 +1183,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -1187,7 +1197,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -1201,7 +1211,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -1215,7 +1225,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -1227,6 +1237,1686 @@
       </c>
       <c r="D41" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D99" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D104" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D106" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D107" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>37</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D108" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D109" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>42</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D110" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>42</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D111" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>42</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D112" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>42</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D113" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>47</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D114" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>47</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>47</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D116" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>47</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D117" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D118" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>52</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D119" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>52</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D120" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>52</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D121" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>17</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>17</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>26</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>26</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D136" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>26</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>27</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>27</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D140" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>27</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D141" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>27</v>
+      </c>
+      <c r="B142" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D142" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>32</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D143" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>32</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D144" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>32</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D145" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>32</v>
+      </c>
+      <c r="B146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>37</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D147" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>37</v>
+      </c>
+      <c r="B148" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D148" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>37</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D149" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>37</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D150" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>42</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D151" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>42</v>
+      </c>
+      <c r="B152" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D152" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>42</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D153" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>42</v>
+      </c>
+      <c r="B154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D154" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>47</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D155" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>47</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D156" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>47</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D157" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>47</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D158" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>52</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D159" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>52</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D160" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>52</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D161" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>52</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D162" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/GDD_Skill_Levels_descriptions.xlsx
+++ b/GDD_Skill_Levels_descriptions.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steve.newman/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steve.newman/Documents/GitHub/gddEvaluator/GDD-Evidence-Evaluator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E2679D8-143D-5942-BD5E-014D341630E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7626A3-BD18-4440-98C9-0B2661C4F8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18120" xr2:uid="{E3A2C896-5453-DA42-8F79-D0CA852F103D}"/>
+    <workbookView xWindow="38800" yWindow="3320" windowWidth="40080" windowHeight="22840" activeTab="1" xr2:uid="{E3A2C896-5453-DA42-8F79-D0CA852F103D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dev" sheetId="1" r:id="rId1"/>
+    <sheet name="Product" sheetId="3" r:id="rId2"/>
+    <sheet name="DM" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="104">
   <si>
     <t>Capability</t>
   </si>
@@ -262,6 +264,245 @@
   </si>
   <si>
     <t>Senior developer - management</t>
+  </si>
+  <si>
+    <t>Agile and Lean practices</t>
+  </si>
+  <si>
+    <t>explain the basic principles of Agile and Lean methodology
+discuss ways to apply Agile and Lean principles in a multi-disciplinary team
+explain why iteration is important</t>
+  </si>
+  <si>
+    <t>demonstrate experience in applying Agile principles in practice
+provide a clear, open and transparent framework in which teams can deliver
+show an awareness of Agile tools and are starting to use them intelligently
+visualise and make visible the work of the team</t>
+  </si>
+  <si>
+    <t>compare and select the most appropriate delivery methods and processes
+recognise, reflect and adapt when something does not work, encouraging experimentation
+use a blended approach depending on the context
+help teams to measure, evaluate and visualise outcomes
+encourage reflective practice to improve ways of working</t>
+  </si>
+  <si>
+    <t>coach and lead teams in Agile and Lean good practices
+create and tailor the right approach for a team, challenging, evaluating and iterating the approach through the life cycle
+experiment with new and innovative ways of working to improve delivery across the organisation
+act as a recognised expert and advocate for Agile and Lean approaches</t>
+  </si>
+  <si>
+    <t>Applying user-centred insights</t>
+  </si>
+  <si>
+    <t>explain the difference between user needs and what a user wants
+explain the purpose of user stories
+explain why applying user-centred insights is important
+explain how you approach understanding user needs</t>
+  </si>
+  <si>
+    <t>identify and engage users and stakeholders to identify user needs and trends
+decide when you need more user insights and when you have enough to make a decision
+work with others to define the problem and research goals
+use quantitative and qualitative user insights to improve product or service outcomes</t>
+  </si>
+  <si>
+    <t>use user insights to represent users in internal discussions
+advocate for research to be completed with all types of users of the product or service
+use user needs to agree the work that needs to be done and determine priorities with the team
+work with others to understand and recommend tools to get the appropriate user insight</t>
+  </si>
+  <si>
+    <t>advocate for a range of effective research approaches across the organisation
+coach others in making decisions that meet user needs across a range of channels
+advocate for continuous use of user insights in teams
+use user insights to make strategic decisions to provide the best user experience</t>
+  </si>
+  <si>
+    <t>Creating value for money</t>
+  </si>
+  <si>
+    <t>clearly describe the value of your work
+determine or estimate the benefits your work is expected to deliver
+identify opportunities for reuse, saving time and money</t>
+  </si>
+  <si>
+    <t>estimate the value of each item on your roadmap
+compare effort to value when deciding priorities
+decide when it's appropriate to reuse something, and when it's not
+decide how and when to escalate risk in achieving value
+discuss estimates with stakeholders to validate understanding
+analyse the benefit of investment against anticipated outcomes</t>
+  </si>
+  <si>
+    <t>advocate for user needs, ensuring user value is balanced against cost and value for the organisation
+determine the benefit of a product and persuade others it's the right product to use
+write or contribute to business cases
+communicate business-value propositions
+help others make value-based decisions, influencing the direction of development</t>
+  </si>
+  <si>
+    <t>develop and own a business case and iterate it throughout the life cycle
+coach others on identifying benefits whilst balancing user and business needs
+communicate the delivery of incremental value
+build the case for an organisational approach to value through product strategy
+coach and empower teams to take a value for money approach</t>
+  </si>
+  <si>
+    <t>Life cycle management</t>
+  </si>
+  <si>
+    <t>explain what each phase of the product or service life cycle is for
+explain how the needs of the product or service vary across phases of the life cycle, and how a team responds to them</t>
+  </si>
+  <si>
+    <t>manage the delivery of products and services that add value through different phases of the life cycle, with some support
+identify if the product or service should move to the next phase and, if it should, how to do this
+ensure the product or service is developed in line with the appropriate service standards for a phase
+use new information to adapt approaches to life cycle management</t>
+  </si>
+  <si>
+    <t>work and consult with the right people at the right time to move through the life cycle and deliver value
+use evidence to decide when a team should continue, change direction or stop
+identify tools and techniques required at different phases of the life cycle
+guide colleagues and stakeholders through different phases of the life cycle</t>
+  </si>
+  <si>
+    <t>lead and coach teams through different phases of the life cycle
+ensure effective support for the product or service and its users
+predict, prevent, mitigate and manage potential risks at different phases of the life cycle
+contribute to the assessment of other teams, providing guidance and support</t>
+  </si>
+  <si>
+    <t>Managing product outcomes</t>
+  </si>
+  <si>
+    <t>explain the importance of identifying and measuring product outcomes
+explain the need for baseline data
+identify and explain the priority outcomes for your product or feature</t>
+  </si>
+  <si>
+    <t>work with others to define key performance indicators that assess performance, value and outcomes
+analyse and use trusted data to make decisions and enable continuous improvement
+be open about your decision making
+identify and explain success metrics to your stakeholders and how the product can contribute to outcomes</t>
+  </si>
+  <si>
+    <t>lead product teams to create effective methods for measuring product outcomes
+advocate for data-driven decision making
+help others prioritise to make better choices
+use data to drive continuous improvement, increasing quality and user experience
+identify opportunities to share and connect product data</t>
+  </si>
+  <si>
+    <t>use data to make prioritisation decisions for multiple or complex projects, products or services
+use data to influence priorities of senior stakeholders
+guide and challenge teams to make better use of data
+guide and challenge teams to demonstrate achievement of outcomes
+identify opportunities to share and connect product data across government</t>
+  </si>
+  <si>
+    <t>Product leadership</t>
+  </si>
+  <si>
+    <t>describe how product management works with other roles in a multi-disciplinary team
+explain how user and business needs should be balanced in product development
+attend product management community activities</t>
+  </si>
+  <si>
+    <t>advocate for your product and a product-led approach
+seek opportunities for reuse and learning in your area
+protect the team, for example, from unnecessary distractions or requests to change direction
+consult and mediate with stakeholders
+participate in product management community activities</t>
+  </si>
+  <si>
+    <t>seek opportunities for reuse and learning across your organisation
+represent product management in your area in conversations with senior stakeholders
+protect teams, for example, from unnecessary distractions and requests to change direction
+coach and manage others in product management
+lead some product management community activities and participate in cross-government communities</t>
+  </si>
+  <si>
+    <t>seek opportunities for reuse and learning across government
+co-ordinate the product management community
+lead on coaching and mentoring for product management in your organisation
+lead some activities in cross-government communities, establishing and maintaining wider relationships across the profession
+represent product management in your organisation in conversations with senior stakeholders</t>
+  </si>
+  <si>
+    <t>Product management</t>
+  </si>
+  <si>
+    <t>explain the value of using a product management approach to provide value and drive the right outcomes</t>
+  </si>
+  <si>
+    <t>create and prioritise actionable goals for your teams, balancing user needs and business perspectives
+make or recommend an evidence-based decision using insight and data
+use a range of product management methods, for example, prioritisation and roadmapping
+work with others in multidisciplinary teams to plan and deliver high-quality product increments</t>
+  </si>
+  <si>
+    <t>work with your team to investigate and validate what adds value now and what could add value in future
+create a prioritised roadmap and use it to discuss your product strategy with stakeholders
+address uncertainty while managing scope, ensuring critical deadlines are met and value delivered
+recommend a range of product management methods
+work in the open and share your work</t>
+  </si>
+  <si>
+    <t>set the strategy and vision for your products, collaborating with others
+create a prioritised roadmap for your products and use it to discuss product strategy at all levels
+plan prioritised work across multiple teams, minimising dependencies and risks
+support multiple teams in delivering quality outcomes in the right way
+coach and mentor others in product management</t>
+  </si>
+  <si>
+    <t>Stakeholder relationship management</t>
+  </si>
+  <si>
+    <t>describe who your stakeholders are and the importance of managing relationships with them
+explain what your stakeholders find important and why</t>
+  </si>
+  <si>
+    <t>identify important stakeholders and communicate with them clearly and regularly
+tailor communication to stakeholders' needs and work with them to build relationships while meeting user needs
+build and reach consensus with stakeholders
+work to improve stakeholder relationships using evidence to explain decisions</t>
+  </si>
+  <si>
+    <t>work with the team to develop and maintain an understanding of stakeholders
+work with the team to develop and implement stakeholder communications strategies
+identify and resolve issues, influence stakeholders and manage relationships effectively
+build long-term strategic relationships and communicate clearly and regularly with stakeholders</t>
+  </si>
+  <si>
+    <t>direct the stakeholder relationship strategy for your teams
+ensure stakeholder's objectives are set and support teams to meet them
+influence and negotiate with senior stakeholders to resolve issues and enable progress</t>
+  </si>
+  <si>
+    <t>Strategic ownership</t>
+  </si>
+  <si>
+    <t>explain how you make decisions that are aligned to the strategy of your organisation
+explain the importance of having a strategy</t>
+  </si>
+  <si>
+    <t>engage and work with users, stakeholders and others to develop a strategy and vision
+ensure the strategy sets out the value, benefits and outcomes needed to justify investment in the feature, product or service
+regularly review and iterate the strategy</t>
+  </si>
+  <si>
+    <t>ensure that the vision and strategy deliver the intended benefits and policy intent, and use evidence to challenge this when needed
+work with stakeholders to get agreement on the strategic approach, build trust and adapt based on feedback
+proactively review and iterate the strategy based on user and organisation insights</t>
+  </si>
+  <si>
+    <t>support and coach others in creating and implementing a successful long-term strategy and tactical approach that others agree with
+influence and persuade stakeholders to support delivery of the strategy
+support with strategic decision making
+ensure strategic alignment across the organisation</t>
   </si>
 </sst>
 </file>
@@ -646,7 +887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7AC9B1-ABB7-BD42-B8A5-87DDE96F229D}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -753,7 +994,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -935,7 +1176,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1075,7 +1316,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1089,7 +1330,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1103,7 +1344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1159,7 +1400,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1201,7 +1442,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -1215,7 +1456,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -1232,4 +1473,462 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1895A39A-0137-AD4A-A072-854BD7210D91}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E37:E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="289" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="323" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="372" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="221" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
+      <c r="C41" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C55374-4B97-EF4C-ABD5-D2D5789B83D7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>